--- a/data/task.xlsx
+++ b/data/task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QCLIC\25.deepwiki\wp_md_wd\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FAEA4E-1D5A-475A-B9B4-7AB98C149A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB02495E-7F8B-42B3-8A5F-C9008D703E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2840" yWindow="3160" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>所属类</t>
   </si>
@@ -52,81 +52,10 @@
     <t>os crates</t>
   </si>
   <si>
-    <t>allocator</t>
-  </si>
-  <si>
     <t>zjp-CN</t>
   </si>
   <si>
-    <t>numpy1314</t>
-  </si>
-  <si>
     <t>arm_gicv2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF2972F4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/arceos-org/allocator</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://deepwiki.com/arceos-org/allocator</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>撰写说明文档</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>新增在 stable 工具链检测；支持 features (已合并)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>添加test（未发起PR）</t>
-    </r>
   </si>
   <si>
     <r>
@@ -159,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -224,14 +153,6 @@
       <color rgb="FF175CEB"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF175CEB"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -639,7 +560,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -701,55 +622,25 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1063,15 +954,10 @@
       <c r="C74" s="24"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
